--- a/pandas_table.xlsx
+++ b/pandas_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Murhuhu</t>
   </si>
@@ -22,46 +22,40 @@
     <t>murhuhu</t>
   </si>
   <si>
+    <t>Новый Вопрос первый</t>
+  </si>
+  <si>
+    <t>Новый Вопрос второй</t>
+  </si>
+  <si>
+    <t>Новый Вопрос третий</t>
+  </si>
+  <si>
+    <t>Новый Вопрос четвертый</t>
+  </si>
+  <si>
+    <t>Новый Вопрос пятый</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
-    <t>2026-02-03 21:00:18.351375</t>
-  </si>
-  <si>
-    <t>2026-02-03 21:00:19.833545</t>
-  </si>
-  <si>
-    <t>2026-02-03 21:00:21.453535</t>
-  </si>
-  <si>
-    <t>2026-02-03 21:00:25.493945</t>
-  </si>
-  <si>
-    <t>2026-02-03 21:00:29.163741</t>
+    <t>03-02-26 21:00</t>
+  </si>
+  <si>
+    <t>21:00</t>
   </si>
   <si>
     <t>name_user</t>
@@ -77,6 +71,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -124,14 +121,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
-  <autoFilter ref="A1:E6"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="name_user"/>
     <tableColumn id="2" name="nick_user"/>
     <tableColumn id="3" name="question_id"/>
     <tableColumn id="4" name="answer_user"/>
     <tableColumn id="5" name="date"/>
+    <tableColumn id="6" name="time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,33 +420,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,10 +463,13 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -481,8 +485,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -496,10 +503,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -510,13 +520,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -527,10 +540,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pandas_table.xlsx
+++ b/pandas_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Murhuhu</t>
   </si>
@@ -22,40 +22,49 @@
     <t>murhuhu</t>
   </si>
   <si>
-    <t>Новый Вопрос первый</t>
-  </si>
-  <si>
-    <t>Новый Вопрос второй</t>
-  </si>
-  <si>
-    <t>Новый Вопрос третий</t>
-  </si>
-  <si>
-    <t>Новый Вопрос четвертый</t>
-  </si>
-  <si>
-    <t>Новый Вопрос пятый</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>03-02-26 21:00</t>
-  </si>
-  <si>
-    <t>21:00</t>
+    <t>Как Вас зовут?</t>
+  </si>
+  <si>
+    <t>Сколько Вам лет?</t>
+  </si>
+  <si>
+    <t>Какое у Вас хобби?</t>
+  </si>
+  <si>
+    <t>Есть ли у Вас домашний питомец?</t>
+  </si>
+  <si>
+    <t>У Вас есть жалобы на здоровье?</t>
+  </si>
+  <si>
+    <t>Вы состоите в браке?</t>
+  </si>
+  <si>
+    <t>Вы счастливы?</t>
+  </si>
+  <si>
+    <t>Дима</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Дев</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>04.02.26</t>
+  </si>
+  <si>
+    <t>12:46</t>
+  </si>
+  <si>
+    <t>12:47</t>
   </si>
   <si>
     <t>name_user</t>
@@ -121,8 +130,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
   <tableColumns count="6">
     <tableColumn id="1" name="name_user"/>
     <tableColumn id="2" name="nick_user"/>
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,22 +440,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -460,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -480,13 +489,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -500,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -520,13 +529,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -540,13 +549,53 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
